--- a/medicine/Enfance/Mythic/Mythic.xlsx
+++ b/medicine/Enfance/Mythic/Mythic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mythic, de son vrai nom Jean-Claude Smit-le-Bénédicte, né le 10 juillet 1947 à Uccle (région de Bruxelles-Capitale), est un graphiste, romancier, nouvelliste, auteur de théâtre et scénariste de bande dessinée belge. Il utilise également les pseudonymes Jean-Claude Hyrayem et Jean-Sébastien Forst.
 </t>
@@ -513,19 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les débuts
-Jean-Claude Smit-le-Bénédicte naît le 10 juillet 1947 à Uccle, une commune bruxelloise. Il commence à travailler comme scénographe et costumier pour un théâtre pour enfants, avant de se lancer dans une carrière d'illustrateur. Il participe à de nombreuses expositions en Belgique et à l'étranger. Smit-le-Bénédicte apparaît fréquemment comme animateur et organisateur de congrès de science-fiction et de fantastique[1],[2].
-En 1973, il publie sa première interview (Maurice Tillieux) dans Curiosity Magazine no 3 des Éditions Michel Deligne. Il réalise ses premières pages de BD avec le dessinateur André Benn dans des magazines comme Curiosity Magazine et Junior[1].
-Spirou
-En 1974, après avoir rencontré Thierry Martens[1], il publie comme scénariste une carte blanche dans Spirou[3]. D'autres créations suivront dans ce même journal, il écrit deux courts récits avec Marc Hardy : L'Île Bleue et Safari Zoo, avant que les deux hommes ne se lancent dans leur série policière humoristique : Garonne et Guitare[3],[1], La Croisière fantastique[3] (avec Rosiński), une série à l'approche plus poétique[1], Jason, Guduk &amp; Cie[3] (avec Didier Conrad), une série fantastique, de 1978 à 1979[1]. Mythic écrit un épisode de la bande dessinée d'action violente Archie Cash (Le Chevalier de la Morte Verte, 1983), une série dessinée par Malik et créée à l'origine par Jean-Marie Brouyère. Sous son propre nom, Smit-le-Bénédicte a écrit quelques récits pour la bande dessinée policière d'Arthur Piroton Jess Long (1990-1991)[1].
-Tintin
-En 1975, il fait son entrée au journal Tintin en scénarisant un récit pour André Benn[4]. Pour cette même publication, il prend la suite de Jean Dufaux sur la série médiévale Le Jeune Renaudin[5] (1988-1989) avec Bruno Di Sano et il imagine aussi les scénarios comiques du Gowap avec Midam (1993)[4] puis avec Curd Ridel pour une série d'albums aux Éditions du Lombard (1996-2005)[1]. Avec le co-scénariste Terence et sous le pseudonyme de « Jean-Claude Smit », il développe la bande dessinée d'aventures érotiques Aryanne (1986-1991), dessinée par Michel Guillou et publiée directement en format album par Magic Strip puis Loempia. Pour ce dernier éditeur, il développe avec Bernard Linssen la bande dessinée d'action inspirée de La Planète des singes Chroniques Gorilles (1990-1991)[1].
-Parallèlement, il se lance également dans l'écriture en publiant les romans Les Mondes Non-Mobiles (1978), Rêveries Impassibles (1982), Délicatesse Mortelle (1989) et Les Légions du Néant (1998)[1].
-François Walthéry et autres collaborations
-Mythic a aussi écrit deux Natacha[3] pour François Walthéry : Cauchemirage (1989) et (Le Regard du passé, 2010) coécrit avec Yves Varende[1]. En 1993, il crée le personnage de flic féminin Rubine avec Walthéry et Dragan De Lazare dans Hello Bédé[6]en prenant soin que le scénario soit adapté au style du dessinateur[7], les albums sont publiés au Lombard[1]. Il travaille avec Walthéry et Bruno Di Sano sur la série érotique Dans La peau d'une femme (2001-2005) pour P&amp;T Productions/Joker Éditions[1]. Dans le même registre et pour le même éditeur, il écrit des scénarios pour Alys et Vicky avec Bruno Di Sano, (1997-1999) et des gags pour Les Saintes-Nitouches d'Édouard Aidans et Les plus courtes sont les meilleures de Josep Marti[1]. À la suite du décès prématuré du scénariste Pascal Renard, il prend en charge l'écriture de la série policière d'espionnage Alpha (1998-2007) à partir du troisième album[1]. Il écrit huit albums dans la collection « Troisième Vague » avant que le dessinateur Youri Jigounov ne commence à écrire ses propres histoires[1]. En 2003, Mythic inaugure la collection « Polyptyque » du Lombard avec Halloween Blues (2003-2009), une série policière surnaturelle dessinée par Kas[1].
-En 2005, le Gowap fait son apparition dans Le Journal de Mickey sous le crayon de Curd Ridel[8].
-Autres activités
-Depuis 2006, Mythic travaille comme scénariste pour des productions théâtrales en collaboration avec l'acteur et metteur en scène Hugo Rezeda[1]. Plusieurs de ses pièces sont jouées en Belgique et en France, telles que Ma Vie d'Artiste ?, Couvre-feu, Le Cabot, Panique à l'Hôtel de Ville, Joyeux Noël, Bordel ! et C'est complet ![1]. Depuis 2010, il gère la partie graphique du Centre d'Art d'Ixelles et du Kraken Metal Rock Fest[1]. Il est également responsable des graphismes liés au groupe de metal gothique belge Azylya, dont sa fille Jamie-Lee est chanteuse[1]. En 2020, il est membre de la Chambre belge des experts en bande dessinée[9].
+          <t>Les débuts</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Claude Smit-le-Bénédicte naît le 10 juillet 1947 à Uccle, une commune bruxelloise. Il commence à travailler comme scénographe et costumier pour un théâtre pour enfants, avant de se lancer dans une carrière d'illustrateur. Il participe à de nombreuses expositions en Belgique et à l'étranger. Smit-le-Bénédicte apparaît fréquemment comme animateur et organisateur de congrès de science-fiction et de fantastique,.
+En 1973, il publie sa première interview (Maurice Tillieux) dans Curiosity Magazine no 3 des Éditions Michel Deligne. Il réalise ses premières pages de BD avec le dessinateur André Benn dans des magazines comme Curiosity Magazine et Junior.
 </t>
         </is>
       </c>
@@ -551,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vie privée</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En février 2009, le brainois Mythic a son quartier général dans un fast-food de Waterloo[10]. Le 7 juin 2020, il est considéré comme une célébrité de sa commune[11]. Le 7 avril 2021, Mythic demeure toujours à Braine-l'Alleud[12]. Il a une fille chanteuse, Jamie-Lee Smit[1].
+          <t>Spirou</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1974, après avoir rencontré Thierry Martens, il publie comme scénariste une carte blanche dans Spirou. D'autres créations suivront dans ce même journal, il écrit deux courts récits avec Marc Hardy : L'Île Bleue et Safari Zoo, avant que les deux hommes ne se lancent dans leur série policière humoristique : Garonne et Guitare La Croisière fantastique (avec Rosiński), une série à l'approche plus poétique, Jason, Guduk &amp; Cie (avec Didier Conrad), une série fantastique, de 1978 à 1979. Mythic écrit un épisode de la bande dessinée d'action violente Archie Cash (Le Chevalier de la Morte Verte, 1983), une série dessinée par Malik et créée à l'origine par Jean-Marie Brouyère. Sous son propre nom, Smit-le-Bénédicte a écrit quelques récits pour la bande dessinée policière d'Arthur Piroton Jess Long (1990-1991).
 </t>
         </is>
       </c>
@@ -582,14 +595,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Postérité</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon Patrick Gaumer, Mythic s'impose comme un des principaux scénaristes de la bande dessinée classique franco-belge[13].  
-Pour le journaliste et scénariste Jean-Laurent Truc[14] : 
-« Mythic est quant à lui un scénariste qui préfère mélanger les genres. Humour avec Curd Ridel pour Le Gowap mais polar fantastique avec Halloween Blues et thriller avec Alpha ou Rubine. Mythic sait faire rire et frémir. »
+          <t>Tintin</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1975, il fait son entrée au journal Tintin en scénarisant un récit pour André Benn. Pour cette même publication, il prend la suite de Jean Dufaux sur la série médiévale Le Jeune Renaudin (1988-1989) avec Bruno Di Sano et il imagine aussi les scénarios comiques du Gowap avec Midam (1993) puis avec Curd Ridel pour une série d'albums aux Éditions du Lombard (1996-2005). Avec le co-scénariste Terence et sous le pseudonyme de « Jean-Claude Smit », il développe la bande dessinée d'aventures érotiques Aryanne (1986-1991), dessinée par Michel Guillou et publiée directement en format album par Magic Strip puis Loempia. Pour ce dernier éditeur, il développe avec Bernard Linssen la bande dessinée d'action inspirée de La Planète des singes Chroniques Gorilles (1990-1991).
+Parallèlement, il se lance également dans l'écriture en publiant les romans Les Mondes Non-Mobiles (1978), Rêveries Impassibles (1982), Délicatesse Mortelle (1989) et Les Légions du Néant (1998).
 </t>
         </is>
       </c>
@@ -615,18 +633,201 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>François Walthéry et autres collaborations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mythic a aussi écrit deux Natacha pour François Walthéry : Cauchemirage (1989) et (Le Regard du passé, 2010) coécrit avec Yves Varende. En 1993, il crée le personnage de flic féminin Rubine avec Walthéry et Dragan De Lazare dans Hello Bédéen prenant soin que le scénario soit adapté au style du dessinateur, les albums sont publiés au Lombard. Il travaille avec Walthéry et Bruno Di Sano sur la série érotique Dans La peau d'une femme (2001-2005) pour P&amp;T Productions/Joker Éditions. Dans le même registre et pour le même éditeur, il écrit des scénarios pour Alys et Vicky avec Bruno Di Sano, (1997-1999) et des gags pour Les Saintes-Nitouches d'Édouard Aidans et Les plus courtes sont les meilleures de Josep Marti. À la suite du décès prématuré du scénariste Pascal Renard, il prend en charge l'écriture de la série policière d'espionnage Alpha (1998-2007) à partir du troisième album. Il écrit huit albums dans la collection « Troisième Vague » avant que le dessinateur Youri Jigounov ne commence à écrire ses propres histoires. En 2003, Mythic inaugure la collection « Polyptyque » du Lombard avec Halloween Blues (2003-2009), une série policière surnaturelle dessinée par Kas.
+En 2005, le Gowap fait son apparition dans Le Journal de Mickey sous le crayon de Curd Ridel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mythic</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mythic</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres activités</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2006, Mythic travaille comme scénariste pour des productions théâtrales en collaboration avec l'acteur et metteur en scène Hugo Rezeda. Plusieurs de ses pièces sont jouées en Belgique et en France, telles que Ma Vie d'Artiste ?, Couvre-feu, Le Cabot, Panique à l'Hôtel de Ville, Joyeux Noël, Bordel ! et C'est complet !. Depuis 2010, il gère la partie graphique du Centre d'Art d'Ixelles et du Kraken Metal Rock Fest. Il est également responsable des graphismes liés au groupe de metal gothique belge Azylya, dont sa fille Jamie-Lee est chanteuse. En 2020, il est membre de la Chambre belge des experts en bande dessinée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mythic</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mythic</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En février 2009, le brainois Mythic a son quartier général dans un fast-food de Waterloo. Le 7 juin 2020, il est considéré comme une célébrité de sa commune. Le 7 avril 2021, Mythic demeure toujours à Braine-l'Alleud. Il a une fille chanteuse, Jamie-Lee Smit.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mythic</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mythic</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Postérité</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Patrick Gaumer, Mythic s'impose comme un des principaux scénaristes de la bande dessinée classique franco-belge.  
+Pour le journaliste et scénariste Jean-Laurent Truc : 
+« Mythic est quant à lui un scénariste qui préfère mélanger les genres. Humour avec Curd Ridel pour Le Gowap mais polar fantastique avec Halloween Blues et thriller avec Alpha ou Rubine. Mythic sait faire rire et frémir. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mythic</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mythic</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bandes dessinées
-Dessins animés
-Odec Kid Cartoons, TF1[53] et la Chine ont réalisé 52 dessins animés de 13 minutes du Gowap. Seize de ces dessins animés ont été regroupés sur quatre DVD : Bébé Gowap, Interdit au Gowap, Le Gowap fait sa pub, Gowap un jour, Gowap pour toujours!.
-Romans
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dessins animés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odec Kid Cartoons, TF1 et la Chine ont réalisé 52 dessins animés de 13 minutes du Gowap. Seize de ces dessins animés ont été regroupés sur quatre DVD : Bébé Gowap, Interdit au Gowap, Le Gowap fait sa pub, Gowap un jour, Gowap pour toujours!.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mythic</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mythic</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cliquez sur dérouler pour voir la liste des romans
 Les Enquêtes de Dogston H. Huge
-Juridiction zéro, en collaboration avec Frank Andriat, Glénat, Grenoble, 1980. / Memor, Bruxelles, 1995. / Fleuve Noir, Paris, 1998,  (ISBN 2-265-06567-6) (BNF 36976116)[54].
+Juridiction zéro, en collaboration avec Frank Andriat, Glénat, Grenoble, 1980. / Memor, Bruxelles, 1995. / Fleuve Noir, Paris, 1998,  (ISBN 2-265-06567-6) (BNF 36976116).
 Duckstone, en collaboration avec Frank Andriat, Memor, Bruxelles, 1995. / Fleuve Noir, Paris, 1998.
 Le Voleur d'ans, en collaboration avec Frank Andriat, Memor, Bruxelles, 1995. / Fleuve Noir, Paris, 1998.
 Les Légions du néant, Memor, Bruxelles, 1995. / Fleuve Noir, Paris, 1998.
@@ -644,13 +845,85 @@
 Le Vol de l'Argo, thriller, en collaboration avec Yves Varende, L'Âge d'or, Charleroi, 2015.
 La Cité effacée, roman policier, coll. « 100/100 », Centre d'Art d'Ixelles, Bruxelles, 2015.
 Daphnée, thriller en collaboration avec Jean Lhassa, Centre d'Art d'Ixelles, 2018.
-Livres pour enfants
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mythic</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mythic</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cliquez sur dérouler pour voir la liste des livres pour enfants
 Le Sixième Océan, en collaboration avec Frank Andriat, dessins de Jean-Louis Dress, Topgame, Bruxelles, 1996.
 Le Dragon des rêves, en collaboration avec Frank Andriat, dessins de Jean-Louis Dress, Topgame, Bruxelles, 1997.
 Invente-moi un ami, en collaboration avec Frank Andriat, dessins de Frank Brichau, Éditions Averbode, Averbode, 2003
 La Porte des adultes, en collaboration avec Frank Andriat, Averbode, Averbode, 2004.
-Recueils de nouvelles fantastiques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mythic</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mythic</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles fantastiques</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cliquez sur dérouler pour voir la liste des recueils de nouvelles fantastiques
 Le Charme rompu en collaboration avec Frank Andriat, Cyclope-Dem, Bruxelles, 1980.
 Le Marchand de souvenirs en collaboration avec Jean Lhassa, Centre d'Art d'Ixelles, Bruxelles, 1983.
@@ -667,7 +940,43 @@
 Arabesques improbables, (dont une nouvelle avec Jean Lhassa) Centre d'Art d'Ixelles, Bruxelles, 2018.
 La Déréliction de l'épouvantail, Éditions Menadès, Bruxelles, 2021.
 La Dernière Gouvernante, (en collaboration avec Jean Lhassa), Éditions Penthaymore, 2021.
-Participation à des ouvrages collectifs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mythic</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mythic</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Participation à des ouvrages collectifs</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cliquez sur dérouler pour voir la liste des ouvrages collectifs
 Coup de cœur à Thomas Owen (Morts sans papiers), Claude Lefrancq, Bruxelles, 1998.
 Waterloo et les écrivains (La butte), Waterloo, 2000 (OCLC 614887284).
@@ -675,11 +984,47 @@
 Le Vampire des origines - Tome 2 / Prix Masterton 2016 dans la catégorie "Nouvelles" (Un Nouveau-Monde - en collaboration avec Jean Lhassa), Lune- Écarlate Éditions, Montluçon, 2015.
 La Belgique imaginaire - Tome 1 (Hiii! J'ai épousé une fée!), Livres libres, L'Harmattan - Académia, Louvain-la-Neuve, 2016  (ISBN 978-2806102584)
 La Belgique imaginaire - Tome 2 (Tout en douceur) Libres libres, L'Harmattan - Académia, Louvain-la-Neuve, 2017,  (ISBN 978-2-8061-0292-8).
-Théâtre
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mythic</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mythic</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cliquez sur dérouler pour voir la liste des pièces de théâtre
 Le Cabot, Centre d'Art d'Ixelles, Bruxelles, 2003. (Première le 11/03/2008 au Théâtre de la Moutonnerie, Charleroi)
 Ma vie d'artiste ?, Centre d'Art d'Ixelles, Bruxelles, 2006. (Première, le 10/11/2006 au Théâtre La ruelle aux baladins, Namur)
-Couvre-Feu, Centre d'Art d'Ixelles, Bruxelles, 2008. (Première le 25/10/2007 au Théâtre La ruelle aux baladins, Namur)[55]
+Couvre-Feu, Centre d'Art d'Ixelles, Bruxelles, 2008. (Première le 25/10/2007 au Théâtre La ruelle aux baladins, Namur)
 Panique à l'hôtel de ville, Centre d'Art d'Ixelles, 2008. (Première le 9/05/2008 au Théâtre La ruelle aux baladins, Namur)
 Joyeux Noël, bordel !, Centre d'Art d'Ixelles, Bruxelles, 2008. (Première le 21/12/2008 au Café-théâtre des 2 gares, Bruxelles)
 C'est complet !, Centre d'Art d'Ixelles, Bruxelles, 2009. (Première le 03/04/2009 au Théâtre La ruelle aux baladins, Namur)
@@ -691,7 +1036,43 @@
 Écran total (Première le 28/05/2010 au Théâtre La ruelle aux baladins, Namur)
 Les Cabots (Première le 25/06/2010 au Théâtre La ruelle aux baladins, Namur)
 Toutes les pièces ont été écrites en collaboration avec Hugo Rezeda.
-Expositions
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mythic</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mythic</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cliquez sur dérouler pour voir la liste des expositions
 Fresques, Delbrück, 1969.
 Une réaction à l'abstrait facile, Le Réchal, Bruxelles, 1970.
@@ -720,12 +1101,48 @@
 Groupe Communauté française, Espace 27 septembre, Bruxelles, 1994.
 XIIIe festival du Film Fantastique de Bruxelles, Passage 44, Bruxelles, 1995.
 Fake Movie Posters, Espace Delahaut, Bruxelles, 2009.
-Exposition didactique, festival Horizons BD[56], Bruxelles (Evere) du 14 au 22 novembre 2009
+Exposition didactique, festival Horizons BD, Bruxelles (Evere) du 14 au 22 novembre 2009
 Trolls et Bestioles, exposition collective, Centre d'Art Fantastique, Bruxelles, 2016 à 2020
 Pinksteren Steampunk, Le labyrinthe de Jules Verne, Bruxelles, 2019.
 Mascarade en Rouge et Noir, Musée d'Art Fantastique, Bruxelles, 2022.
 Trolls et Bestioles, exposition collective, Centre d'Art Fantastique, Bruxelles, 2022. (Prix du BIFFF 2021)
-Divers
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mythic</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mythic</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cliquez sur dérouler pour voir la liste
 L'Escargotier, conte fantastique, texte et dessins Mythic, Didaktiek Center, Opwijk, 1973.
 Guide des soucoupes volantes, Étude, Espace, Bruxelles, 1976.
@@ -745,37 +1162,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mythic</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mythic</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mythic</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mythic</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1986 :  prix du meilleur scénario décerné par la Chambre belge des experts en bande dessinée pour Aryanne avec Terence[57] ;
-1993 :  prix du meilleur scénario décerné par la Chambre belge des experts en bande dessinée pour Les Mémoires troubles[41] ;
-1997 :  prix de l'humour au festival international de la bande dessinée de Chambéry avec Curd Ridel pour la série Gowap[32] ;
-2000 :  Bulle d'Or 2000 du meilleur scénario au festival de la Bulle d'Or de Brignais[23] ;
-2004 :  prix du meilleur scénario décerné par la Chambre belge des experts en bande dessinée pour Prémonitions[58].</t>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1986 :  prix du meilleur scénario décerné par la Chambre belge des experts en bande dessinée pour Aryanne avec Terence ;
+1993 :  prix du meilleur scénario décerné par la Chambre belge des experts en bande dessinée pour Les Mémoires troubles ;
+1997 :  prix de l'humour au festival international de la bande dessinée de Chambéry avec Curd Ridel pour la série Gowap ;
+2000 :  Bulle d'Or 2000 du meilleur scénario au festival de la Bulle d'Or de Brignais ;
+2004 :  prix du meilleur scénario décerné par la Chambre belge des experts en bande dessinée pour Prémonitions.</t>
         </is>
       </c>
     </row>
